--- a/data/sideeffects_corrected.xlsx
+++ b/data/sideeffects_corrected.xlsx
@@ -5573,7 +5573,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5634,6 +5634,36 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -5657,7 +5687,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -5701,6 +5731,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
@@ -6058,10 +6098,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="8280" ySplit="13060" topLeftCell="AB177" activePane="topRight"/>
-      <selection activeCell="C317" sqref="C317"/>
-      <selection pane="topRight" activeCell="AC293" sqref="AC1:AC1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I206" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="16000" ySplit="13060" topLeftCell="AP177"/>
+      <selection activeCell="C230" sqref="C230"/>
+      <selection pane="topRight" activeCell="AZ42" sqref="AZ42:BA42"/>
       <selection pane="bottomLeft" activeCell="Z203" sqref="Z203"/>
       <selection pane="bottomRight" activeCell="AD203" sqref="AD203"/>
     </sheetView>
@@ -6073,16 +6113,16 @@
     <col min="4" max="5" width="8.83203125" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" customWidth="1"/>
-    <col min="12" max="12" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="8.33203125" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" customWidth="1"/>
-    <col min="16" max="16" width="28" customWidth="1"/>
-    <col min="17" max="17" width="29" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
     <col min="18" max="23" width="8.83203125" customWidth="1"/>
     <col min="24" max="24" width="72" customWidth="1"/>
     <col min="25" max="25" width="14.1640625" customWidth="1"/>
@@ -6359,165 +6399,164 @@
         <v>963</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:30" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="37">
         <v>4686</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="37">
         <v>78381</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="37">
         <v>2018</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="37">
         <v>116</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="37">
         <v>-1.1599999999999999</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="37">
         <v>5</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="37">
         <v>116</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="37">
         <v>0.57913000000000003</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="37">
         <v>14.208910221359</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="37">
         <v>115</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="R4" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S4" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T4" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U4" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V4" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X4" s="1" t="s">
+      <c r="R4" s="37" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S4" s="37" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T4" s="37" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U4" s="37" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V4" s="37" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X4" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="AC4" s="28" t="s">
+      <c r="AC4" s="37" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:30" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="37">
         <v>4686</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="37">
         <v>78421</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="37">
         <v>2018</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="37">
         <v>228</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="37">
         <v>-2.6898678414096899</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="37">
         <v>5</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="37">
         <v>227</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="37">
         <v>1.9588495575221201</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="37">
         <v>16.434297627203101</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="37">
         <v>226</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="R5" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S5" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T5" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U5" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V5" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X5" s="1"/>
-      <c r="AC5" s="28" t="s">
+      <c r="R5" s="37" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S5" s="37" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T5" s="37" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U5" s="37" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V5" s="37" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC5" s="37" t="s">
         <v>914</v>
       </c>
     </row>
@@ -7042,338 +7081,338 @@
         <v>964</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="38">
         <v>331</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="38">
         <v>700</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="38">
         <v>2015</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="38">
         <v>153</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="38">
         <v>0.1</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="38">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="38">
         <v>153</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="38">
         <v>-16.899999999999999</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="38">
         <v>37.200000000000003</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="38">
         <v>153</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="4" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S12" s="4" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T12" s="4" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U12" s="4" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V12" s="4" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X12" s="4" t="s">
+      <c r="R12" s="38" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S12" s="38" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T12" s="38" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U12" s="38" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V12" s="38" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X12" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="Y12" s="4" t="s">
+      <c r="Y12" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="Z12" s="4" t="s">
+      <c r="Z12" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="AA12" s="4" t="s">
+      <c r="AA12" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="AB12" s="4" t="s">
+      <c r="AB12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="AC12" s="29" t="s">
+      <c r="AC12" s="38" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="38">
         <v>331</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="38">
         <v>699</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="38">
         <v>2015</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="38">
         <v>152</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="38">
         <v>0.7</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="38">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="38">
         <v>152</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="38">
         <v>-20.6</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="38">
         <v>32.200000000000003</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="38">
         <v>152</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="R13" s="4" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S13" s="4" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T13" s="4" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U13" s="4" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V13" s="4" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC13" s="29" t="s">
+      <c r="R13" s="38" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S13" s="38" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T13" s="38" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U13" s="38" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V13" s="38" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC13" s="38" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:30" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="38">
         <v>331</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="38">
         <v>700</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="38">
         <v>2015</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="38">
         <v>153</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="38">
         <v>0.1</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="38">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="38">
         <v>153</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="38">
         <v>-16.899999999999999</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="38">
         <v>37.200000000000003</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="38">
         <v>153</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="R14" s="4" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S14" s="4" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T14" s="4" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U14" s="4" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V14" s="4" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X14" s="4" t="s">
+      <c r="R14" s="38" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S14" s="38" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T14" s="38" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U14" s="38" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V14" s="38" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X14" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="Y14" s="4" t="s">
+      <c r="Y14" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="Z14" s="4" t="s">
+      <c r="Z14" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="AA14" s="4" t="s">
+      <c r="AA14" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="AB14" s="4" t="s">
+      <c r="AB14" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="AC14" s="29" t="s">
+      <c r="AC14" s="38" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:30" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="39">
         <v>331</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="39">
         <v>76206</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="39">
         <v>2015</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="39">
         <v>312</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="39">
         <v>0.69935897435897398</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="39">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="39">
         <v>312</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="39">
         <v>-18.2650641025641</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="39">
         <v>47.560424428202502</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="39">
         <v>312</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R15" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S15" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T15" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U15" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V15" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X15" s="1"/>
-      <c r="AC15" s="29" t="s">
+      <c r="R15" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S15" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T15" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U15" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V15" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X15" s="37"/>
+      <c r="AC15" s="38" t="s">
         <v>923</v>
       </c>
     </row>
@@ -7721,287 +7760,287 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="39">
         <v>1033</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="39">
         <v>3340</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="39">
         <v>2015</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="39">
         <v>184</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="39">
         <v>0.35</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="39">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="39">
         <v>184</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="39">
         <v>-2.64</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="39">
         <v>14.51</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="39">
         <v>165</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="39">
         <v>3.5</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="39">
         <v>18</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="39">
         <v>168</v>
       </c>
-      <c r="U20" t="s">
+      <c r="U20" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V20" t="s">
+      <c r="V20" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AC20" s="28" t="s">
+      <c r="AC20" s="39" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="39">
         <v>1033</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="39">
         <v>76209</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="39">
         <v>2015</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="39">
         <v>370</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="39">
         <v>1.706</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="39">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="39">
         <v>370</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="39">
         <v>-1.2604285714285699</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="39">
         <v>9.6466025752540503</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="39">
         <v>350</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="39">
         <v>1.21420454545455</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="39">
         <v>17.513891319178001</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="39">
         <v>352</v>
       </c>
-      <c r="U21" t="s">
+      <c r="U21" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V21" t="s">
+      <c r="V21" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AC21" s="28" t="s">
+      <c r="AC21" s="39" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="39">
         <v>1056</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="39">
         <v>3392</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="39">
         <v>2015</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="39">
         <v>184</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="39">
         <v>0.42</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="39">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="39">
         <v>184</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="39">
         <v>-2.95</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="39">
         <v>20.49</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="39">
         <v>168</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q22" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="39">
         <v>0.9</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="39">
         <v>18.5</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="39">
         <v>170</v>
       </c>
-      <c r="U22" t="s">
+      <c r="U22" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V22" t="s">
+      <c r="V22" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AC22" s="28" t="s">
+      <c r="AC22" s="39" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="39">
         <v>1056</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="39">
         <v>76210</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="39">
         <v>2015</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="39">
         <v>362</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="39">
         <v>1.36546961325967</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="39">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="39">
         <v>362</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="39">
         <v>-0.70161764705882401</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="39">
         <v>19.542705432424501</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="39">
         <v>340</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="39">
         <v>0.22244897959183699</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="39">
         <v>15.7762754256417</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="39">
         <v>343</v>
       </c>
-      <c r="U23" t="s">
+      <c r="U23" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V23" t="s">
+      <c r="V23" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AC23" s="28" t="s">
+      <c r="AC23" s="39" t="s">
         <v>915</v>
       </c>
     </row>
@@ -9323,172 +9362,172 @@
         <v>950</v>
       </c>
     </row>
-    <row r="40" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="40">
         <v>394</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="40">
         <v>837</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="40">
         <v>2014</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="40">
         <v>101</v>
       </c>
-      <c r="H40" s="7" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I40" s="7" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J40" s="7" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K40" s="7" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L40" s="7" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M40" s="7">
+      <c r="H40" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I40" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J40" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K40" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L40" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M40" s="40">
         <v>-6.68</v>
       </c>
-      <c r="N40" s="7">
+      <c r="N40" s="40">
         <v>36.706323677334403</v>
       </c>
-      <c r="O40" s="7">
+      <c r="O40" s="40">
         <v>99</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="P40" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="Q40" s="7" t="s">
+      <c r="Q40" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="R40" s="7" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S40" s="7" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T40" s="7" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U40" s="7" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V40" s="7" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X40" s="7" t="s">
+      <c r="R40" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S40" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T40" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U40" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V40" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X40" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="Y40" s="7" t="s">
+      <c r="Y40" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="Z40" s="7" t="s">
+      <c r="Z40" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="AB40" s="7" t="s">
+      <c r="AB40" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="AC40" s="31" t="s">
+      <c r="AC40" s="40" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="41" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="40">
         <v>394</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="40">
         <v>836</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="40">
         <v>2014</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="40">
         <v>93</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="40">
         <v>2.7368000000000001</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="40">
         <v>3.6798141059999998</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="40">
         <v>93</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="K41" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="L41" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M41" s="40">
         <v>-6.06</v>
       </c>
-      <c r="N41" s="7">
+      <c r="N41" s="40">
         <v>36.706323677334403</v>
       </c>
-      <c r="O41" s="7">
+      <c r="O41" s="40">
         <v>93</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="P41" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="Q41" s="7" t="s">
+      <c r="Q41" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="R41" s="7" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S41" s="7" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T41" s="7" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U41" s="7" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V41" s="7" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC41" s="31" t="s">
+      <c r="R41" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S41" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T41" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U41" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V41" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC41" s="40" t="s">
         <v>952</v>
       </c>
     </row>
@@ -9663,296 +9702,296 @@
         <v>939</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="39">
         <v>649</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="39">
         <v>2423</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="39">
         <v>2014</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="39">
         <v>151</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="39">
         <v>0.5</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="39">
         <v>2.9</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="39">
         <v>151</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="39">
         <v>-11.35111672</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="39">
         <v>36.706323677334403</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="39">
         <v>151</v>
       </c>
-      <c r="P44" t="s">
+      <c r="P44" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="Q44" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="39">
         <v>-1.4</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="39">
         <v>24.757979667836</v>
       </c>
-      <c r="T44">
+      <c r="T44" s="39">
         <v>151</v>
       </c>
-      <c r="U44" t="s">
+      <c r="U44" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V44" t="s">
+      <c r="V44" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="AC44" s="28" t="s">
+      <c r="AC44" s="39" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="39">
         <v>649</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="39">
         <v>2424</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="39">
         <v>2014</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="39">
         <v>140</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="39">
         <v>2</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="39">
         <v>3.2</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="39">
         <v>140</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="39">
         <v>24.81832867</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="39">
         <v>36.706323677334403</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="39">
         <v>140</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="Q45" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="39">
         <v>5.0999999999999996</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="39">
         <v>24.757979667836</v>
       </c>
-      <c r="T45">
+      <c r="T45" s="39">
         <v>140</v>
       </c>
-      <c r="U45" t="s">
+      <c r="U45" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V45" t="s">
+      <c r="V45" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="X45" s="1" t="s">
+      <c r="X45" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="Y45" s="1" t="s">
+      <c r="Y45" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Z45" s="2" t="s">
+      <c r="Z45" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="AC45" s="28" t="s">
+      <c r="AC45" s="39" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="39">
         <v>649</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="39">
         <v>2423</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="39">
         <v>2014</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="39">
         <v>151</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="39">
         <v>0.5</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="39">
         <v>2.9</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="39">
         <v>151</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="39">
         <v>-11.35111672</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="39">
         <v>36.706323677334403</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="39">
         <v>151</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P46" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="Q46" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="39">
         <v>-1.4</v>
       </c>
-      <c r="S46">
+      <c r="S46" s="39">
         <v>24.757979667836</v>
       </c>
-      <c r="T46">
+      <c r="T46" s="39">
         <v>151</v>
       </c>
-      <c r="U46" t="s">
+      <c r="U46" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V46" t="s">
+      <c r="V46" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="AC46" s="28" t="s">
+      <c r="AC46" s="39" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="39">
         <v>649</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="39">
         <v>76207</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="39">
         <v>2014</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="39">
         <v>438</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="39">
         <v>1.2655251141552499</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="39">
         <v>3.12396446010505</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="39">
         <v>438</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="39">
         <v>-14.6445914486986</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="39">
         <v>36.706323677334403</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="39">
         <v>438</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P47" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="Q47" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="39">
         <v>-1.9675799086757999</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="39">
         <v>24.757979667836</v>
       </c>
-      <c r="T47">
+      <c r="T47" s="39">
         <v>438</v>
       </c>
-      <c r="U47" t="s">
+      <c r="U47" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V47" t="s">
+      <c r="V47" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="AC47" s="28" t="s">
+      <c r="AC47" s="39" t="s">
         <v>935</v>
       </c>
     </row>
@@ -11185,316 +11224,316 @@
         <v>912</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="62" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="39">
         <v>235</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="39">
         <v>483</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="39">
         <v>2010</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="39">
         <v>115</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="39">
         <v>0.3</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="39">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="39">
         <v>115</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L62" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="39">
         <v>2.8</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="39">
         <v>59.11</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="39">
         <v>106</v>
       </c>
-      <c r="P62" t="s">
+      <c r="P62" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="Q62" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R62" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S62" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T62" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U62" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V62" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X62" s="1" t="s">
+      <c r="R62" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S62" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T62" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U62" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V62" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X62" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Y62" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Z62" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="AC62" s="28" t="s">
+      <c r="AC62" s="39" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="63" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="39">
         <v>235</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="39">
         <v>484</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="39">
         <v>2010</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="39">
         <v>123</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="39">
         <v>0.4</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="39">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="39">
         <v>123</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L63" t="s">
+      <c r="L63" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="39">
         <v>-19.2</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="39">
         <v>43.73</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="39">
         <v>114</v>
       </c>
-      <c r="P63" t="s">
+      <c r="P63" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="Q63" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R63" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S63" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T63" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U63" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V63" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC63" s="28" t="s">
+      <c r="R63" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S63" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T63" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U63" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V63" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC63" s="39" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="39">
         <v>235</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="39">
         <v>484</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="39">
         <v>2010</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="39">
         <v>123</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="39">
         <v>0.4</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="39">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="39">
         <v>123</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L64" t="s">
+      <c r="L64" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="39">
         <v>-19.2</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="39">
         <v>43.73</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="39">
         <v>114</v>
       </c>
-      <c r="P64" t="s">
+      <c r="P64" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="Q64" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R64" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S64" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T64" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U64" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V64" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC64" s="28" t="s">
+      <c r="R64" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S64" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T64" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U64" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V64" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC64" s="39" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="65" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="39">
         <v>235</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="39">
         <v>482</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="39">
         <v>2010</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="39">
         <v>220</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="39">
         <v>0.7</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="39">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="39">
         <v>217</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L65" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="39">
         <v>-13.2</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="39">
         <v>39.72</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="39">
         <v>203</v>
       </c>
-      <c r="P65" t="s">
+      <c r="P65" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="Q65" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R65" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S65" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T65" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U65" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V65" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC65" s="28" t="s">
+      <c r="R65" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S65" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T65" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U65" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V65" s="39" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC65" s="39" t="s">
         <v>926</v>
       </c>
     </row>
@@ -13767,299 +13806,299 @@
         <v>972</v>
       </c>
     </row>
-    <row r="96" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="6" t="s">
+    <row r="96" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96" s="42">
         <v>633</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="42">
         <v>2382</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="42">
         <v>2008</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="F96" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="G96" s="6">
+      <c r="G96" s="42">
         <v>151</v>
       </c>
-      <c r="H96" s="6">
+      <c r="H96" s="42">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I96" s="6">
+      <c r="I96" s="42">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J96" s="6">
+      <c r="J96" s="42">
         <v>150</v>
       </c>
-      <c r="K96" s="6" t="s">
+      <c r="K96" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="L96" s="6" t="s">
+      <c r="L96" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="M96" s="6">
+      <c r="M96" s="42">
         <v>1.9</v>
       </c>
-      <c r="N96" s="6">
+      <c r="N96" s="42">
         <v>26</v>
       </c>
-      <c r="O96" s="6">
+      <c r="O96" s="42">
         <v>134</v>
       </c>
-      <c r="P96" s="6" t="s">
+      <c r="P96" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="Q96" s="6" t="s">
+      <c r="Q96" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="R96" s="6">
+      <c r="R96" s="42">
         <v>6.1</v>
       </c>
-      <c r="S96" s="6">
+      <c r="S96" s="42">
         <v>18.600000000000001</v>
       </c>
-      <c r="T96" s="6">
+      <c r="T96" s="42">
         <v>148</v>
       </c>
-      <c r="U96" s="6" t="s">
+      <c r="U96" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="V96" s="6" t="s">
+      <c r="V96" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AB96" s="6" t="s">
+      <c r="AB96" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="AC96" s="30" t="s">
+      <c r="AC96" s="42" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="97" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="6" t="s">
+    <row r="97" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97" s="42">
         <v>633</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="42">
         <v>2299</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="42">
         <v>2008</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="F97" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G97" s="6">
+      <c r="G97" s="42">
         <v>152</v>
       </c>
-      <c r="H97" s="6">
+      <c r="H97" s="42">
         <v>0.52</v>
       </c>
-      <c r="I97" s="6">
+      <c r="I97" s="42">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J97" s="6">
+      <c r="J97" s="42">
         <v>147</v>
       </c>
-      <c r="K97" s="6" t="s">
+      <c r="K97" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="L97" s="6" t="s">
+      <c r="L97" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="M97" s="6">
+      <c r="M97" s="42">
         <v>-6.3</v>
       </c>
-      <c r="N97" s="6">
+      <c r="N97" s="42">
         <v>22.4</v>
       </c>
-      <c r="O97" s="6">
+      <c r="O97" s="42">
         <v>128</v>
       </c>
-      <c r="P97" s="6" t="s">
+      <c r="P97" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="Q97" s="6" t="s">
+      <c r="Q97" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="R97" s="6">
+      <c r="R97" s="42">
         <v>-2</v>
       </c>
-      <c r="S97" s="6">
+      <c r="S97" s="42">
         <v>18.2</v>
       </c>
-      <c r="T97" s="6">
+      <c r="T97" s="42">
         <v>141</v>
       </c>
-      <c r="U97" s="6" t="s">
+      <c r="U97" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="V97" s="6" t="s">
+      <c r="V97" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AB97" s="6" t="s">
+      <c r="AB97" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="AC97" s="30" t="s">
+      <c r="AC97" s="42" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="98" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
+    <row r="98" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B98" s="42">
         <v>633</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="42">
         <v>2298</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="42">
         <v>2008</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="F98" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="G98" s="6">
+      <c r="G98" s="42">
         <v>303</v>
       </c>
-      <c r="H98" s="6">
+      <c r="H98" s="42">
         <v>2.79</v>
       </c>
-      <c r="I98" s="6">
+      <c r="I98" s="42">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J98" s="6">
+      <c r="J98" s="42">
         <v>300</v>
       </c>
-      <c r="K98" s="6" t="s">
+      <c r="K98" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="L98" s="6" t="s">
+      <c r="L98" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="M98" s="6">
+      <c r="M98" s="42">
         <v>2.6</v>
       </c>
-      <c r="N98" s="6">
+      <c r="N98" s="42">
         <v>26.7</v>
       </c>
-      <c r="O98" s="6">
+      <c r="O98" s="42">
         <v>266</v>
       </c>
-      <c r="P98" s="6" t="s">
+      <c r="P98" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="Q98" s="6" t="s">
+      <c r="Q98" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="R98" s="6">
+      <c r="R98" s="42">
         <v>7.2</v>
       </c>
-      <c r="S98" s="6">
+      <c r="S98" s="42">
         <v>20.2</v>
       </c>
-      <c r="T98" s="6">
+      <c r="T98" s="42">
         <v>288</v>
       </c>
-      <c r="U98" s="6" t="s">
+      <c r="U98" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="V98" s="6" t="s">
+      <c r="V98" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AB98" s="6" t="s">
+      <c r="AB98" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="AC98" s="30" t="s">
+      <c r="AC98" s="42" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="99" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
+    <row r="99" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99" s="42">
         <v>633</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="42">
         <v>2299</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99" s="42">
         <v>2008</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="F99" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G99" s="6">
+      <c r="G99" s="42">
         <v>152</v>
       </c>
-      <c r="H99" s="6">
+      <c r="H99" s="42">
         <v>0.52</v>
       </c>
-      <c r="I99" s="6">
+      <c r="I99" s="42">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J99" s="6">
+      <c r="J99" s="42">
         <v>147</v>
       </c>
-      <c r="K99" s="6" t="s">
+      <c r="K99" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="L99" s="6" t="s">
+      <c r="L99" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="M99" s="6">
+      <c r="M99" s="42">
         <v>-6.3</v>
       </c>
-      <c r="N99" s="6">
+      <c r="N99" s="42">
         <v>22.4</v>
       </c>
-      <c r="O99" s="6">
+      <c r="O99" s="42">
         <v>128</v>
       </c>
-      <c r="P99" s="6" t="s">
+      <c r="P99" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="Q99" s="6" t="s">
+      <c r="Q99" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="R99" s="6">
+      <c r="R99" s="42">
         <v>-2</v>
       </c>
-      <c r="S99" s="6">
+      <c r="S99" s="42">
         <v>18.2</v>
       </c>
-      <c r="T99" s="6">
+      <c r="T99" s="42">
         <v>141</v>
       </c>
-      <c r="U99" s="6" t="s">
+      <c r="U99" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="V99" s="6" t="s">
+      <c r="V99" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AB99" s="6" t="s">
+      <c r="AB99" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="AC99" s="30" t="s">
+      <c r="AC99" s="42" t="s">
         <v>920</v>
       </c>
     </row>
@@ -14972,287 +15011,287 @@
         <v>916</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="112" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="39">
         <v>899</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="39">
         <v>3015</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="39">
         <v>2008</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="39">
         <v>156</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="39">
         <v>0</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="39">
         <v>5</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="39">
         <v>152</v>
       </c>
-      <c r="K112" t="s">
+      <c r="K112" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L112" t="s">
+      <c r="L112" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M112">
+      <c r="M112" s="39">
         <v>-13.8</v>
       </c>
-      <c r="N112">
+      <c r="N112" s="39">
         <v>41.2</v>
       </c>
-      <c r="O112">
+      <c r="O112" s="39">
         <v>97</v>
       </c>
-      <c r="P112" t="s">
+      <c r="P112" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q112" t="s">
+      <c r="Q112" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R112">
+      <c r="R112" s="39">
         <v>1.2</v>
       </c>
-      <c r="S112">
+      <c r="S112" s="39">
         <v>19.600000000000001</v>
       </c>
-      <c r="T112">
+      <c r="T112" s="39">
         <v>147</v>
       </c>
-      <c r="U112" t="s">
+      <c r="U112" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V112" t="s">
+      <c r="V112" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AC112" s="28" t="s">
+      <c r="AC112" s="39" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="113" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="39">
         <v>899</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="39">
         <v>3014</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="39">
         <v>2008</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="39">
         <v>154</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="39">
         <v>2</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="39">
         <v>5</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="39">
         <v>149</v>
       </c>
-      <c r="K113" t="s">
+      <c r="K113" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="L113" t="s">
+      <c r="L113" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M113">
+      <c r="M113" s="39">
         <v>-4.3</v>
       </c>
-      <c r="N113">
+      <c r="N113" s="39">
         <v>22.6</v>
       </c>
-      <c r="O113">
+      <c r="O113" s="39">
         <v>96</v>
       </c>
-      <c r="P113" t="s">
+      <c r="P113" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q113" t="s">
+      <c r="Q113" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R113">
+      <c r="R113" s="39">
         <v>5</v>
       </c>
-      <c r="S113">
+      <c r="S113" s="39">
         <v>19</v>
       </c>
-      <c r="T113">
+      <c r="T113" s="39">
         <v>145</v>
       </c>
-      <c r="U113" t="s">
+      <c r="U113" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V113" t="s">
+      <c r="V113" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AC113" s="28" t="s">
+      <c r="AC113" s="39" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="114" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="39">
         <v>899</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="39">
         <v>3015</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="39">
         <v>2008</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="39">
         <v>156</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="39">
         <v>0</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="39">
         <v>5</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="39">
         <v>152</v>
       </c>
-      <c r="K114" t="s">
+      <c r="K114" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L114" t="s">
+      <c r="L114" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M114">
+      <c r="M114" s="39">
         <v>-13.8</v>
       </c>
-      <c r="N114">
+      <c r="N114" s="39">
         <v>41.2</v>
       </c>
-      <c r="O114">
+      <c r="O114" s="39">
         <v>97</v>
       </c>
-      <c r="P114" t="s">
+      <c r="P114" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q114" t="s">
+      <c r="Q114" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R114">
+      <c r="R114" s="39">
         <v>1.2</v>
       </c>
-      <c r="S114">
+      <c r="S114" s="39">
         <v>19.600000000000001</v>
       </c>
-      <c r="T114">
+      <c r="T114" s="39">
         <v>147</v>
       </c>
-      <c r="U114" t="s">
+      <c r="U114" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V114" t="s">
+      <c r="V114" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AC114" s="28" t="s">
+      <c r="AC114" s="39" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="115" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="39">
         <v>899</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="39">
         <v>3016</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="39">
         <v>2008</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="39">
         <v>153</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="39">
         <v>2</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="39">
         <v>5</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="39">
         <v>146</v>
       </c>
-      <c r="K115" t="s">
+      <c r="K115" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L115" t="s">
+      <c r="L115" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M115">
+      <c r="M115" s="39">
         <v>34.5</v>
       </c>
-      <c r="N115">
+      <c r="N115" s="39">
         <v>44.2</v>
       </c>
-      <c r="O115">
+      <c r="O115" s="39">
         <v>80</v>
       </c>
-      <c r="P115" t="s">
+      <c r="P115" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q115" t="s">
+      <c r="Q115" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R115">
+      <c r="R115" s="39">
         <v>2.4</v>
       </c>
-      <c r="S115">
+      <c r="S115" s="39">
         <v>20.2</v>
       </c>
-      <c r="T115">
+      <c r="T115" s="39">
         <v>136</v>
       </c>
-      <c r="U115" t="s">
+      <c r="U115" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V115" t="s">
+      <c r="V115" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AC115" s="28" t="s">
+      <c r="AC115" s="39" t="s">
         <v>916</v>
       </c>
     </row>
@@ -15734,157 +15773,157 @@
         <v>909</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="122" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="39">
         <v>992</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="39">
         <v>3239</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="39">
         <v>2008</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="39">
         <v>117</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="39">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="39">
         <v>3.54</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="39">
         <v>108</v>
       </c>
-      <c r="K122" t="s">
+      <c r="K122" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L122" t="s">
+      <c r="L122" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="M122">
+      <c r="M122" s="39">
         <v>-6.55</v>
       </c>
-      <c r="N122">
+      <c r="N122" s="39">
         <v>16.14</v>
       </c>
-      <c r="O122">
+      <c r="O122" s="39">
         <v>92</v>
       </c>
-      <c r="P122" t="s">
+      <c r="P122" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q122" t="s">
+      <c r="Q122" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R122">
+      <c r="R122" s="39">
         <v>-1.79</v>
       </c>
-      <c r="S122">
+      <c r="S122" s="39">
         <v>24.757979667836</v>
       </c>
-      <c r="T122">
+      <c r="T122" s="39">
         <v>117</v>
       </c>
-      <c r="U122" t="s">
+      <c r="U122" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V122" t="s">
+      <c r="V122" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="X122" s="14" t="s">
+      <c r="X122" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="Y122" t="s">
+      <c r="Y122" s="39" t="s">
         <v>306</v>
       </c>
-      <c r="Z122" t="s">
+      <c r="Z122" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="AA122" t="s">
+      <c r="AA122" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="AC122" s="28" t="s">
+      <c r="AC122" s="39" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="123" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="39">
         <v>992</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="39">
         <v>76208</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="39">
         <v>2008</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="39">
         <v>448</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="39">
         <v>0.90133802816901398</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="39">
         <v>5.1489844564423901</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="39">
         <v>426</v>
       </c>
-      <c r="K123" t="s">
+      <c r="K123" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L123" t="s">
+      <c r="L123" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="M123">
+      <c r="M123" s="39">
         <v>-6.8437669376693799</v>
       </c>
-      <c r="N123">
+      <c r="N123" s="39">
         <v>21.999440973678301</v>
       </c>
-      <c r="O123">
+      <c r="O123" s="39">
         <v>369</v>
       </c>
-      <c r="P123" t="s">
+      <c r="P123" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q123" t="s">
+      <c r="Q123" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R123">
+      <c r="R123" s="39">
         <v>1.2575000000000001</v>
       </c>
-      <c r="S123">
+      <c r="S123" s="39">
         <v>24.757979667836</v>
       </c>
-      <c r="T123">
+      <c r="T123" s="39">
         <v>447</v>
       </c>
-      <c r="U123" t="s">
+      <c r="U123" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V123" t="s">
+      <c r="V123" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="AC123" s="28" t="s">
+      <c r="AC123" s="39" t="s">
         <v>920</v>
       </c>
     </row>
@@ -18278,287 +18317,287 @@
         <v>933</v>
       </c>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+    <row r="154" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="39" t="s">
         <v>369</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="39">
         <v>845</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="39" t="s">
         <v>370</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="39">
         <v>2866</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="39">
         <v>2007</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="39">
         <v>62</v>
       </c>
-      <c r="H154">
+      <c r="H154" s="39">
         <v>0.15</v>
       </c>
-      <c r="I154">
+      <c r="I154" s="39">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J154">
+      <c r="J154" s="39">
         <v>54</v>
       </c>
-      <c r="K154" t="s">
+      <c r="K154" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L154" t="s">
+      <c r="L154" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M154">
+      <c r="M154" s="39">
         <v>-3.9</v>
       </c>
-      <c r="N154">
+      <c r="N154" s="39">
         <v>15.31</v>
       </c>
-      <c r="O154">
+      <c r="O154" s="39">
         <v>60</v>
       </c>
-      <c r="P154" t="s">
+      <c r="P154" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q154" t="s">
+      <c r="Q154" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R154">
+      <c r="R154" s="39">
         <v>-1.6</v>
       </c>
-      <c r="S154">
+      <c r="S154" s="39">
         <v>18</v>
       </c>
-      <c r="T154">
+      <c r="T154" s="39">
         <v>58</v>
       </c>
-      <c r="U154" t="s">
+      <c r="U154" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V154" t="s">
+      <c r="V154" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AC154" s="28" t="s">
+      <c r="AC154" s="39" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+    <row r="155" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="39">
         <v>845</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="39" t="s">
         <v>370</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="39">
         <v>2867</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="39">
         <v>2007</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="39">
         <v>60</v>
       </c>
-      <c r="H155">
+      <c r="H155" s="39">
         <v>1.6</v>
       </c>
-      <c r="I155">
+      <c r="I155" s="39">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J155">
+      <c r="J155" s="39">
         <v>47</v>
       </c>
-      <c r="K155" t="s">
+      <c r="K155" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L155" t="s">
+      <c r="L155" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M155">
+      <c r="M155" s="39">
         <v>58.74</v>
       </c>
-      <c r="N155">
+      <c r="N155" s="39">
         <v>58.67</v>
       </c>
-      <c r="O155">
+      <c r="O155" s="39">
         <v>56</v>
       </c>
-      <c r="P155" t="s">
+      <c r="P155" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q155" t="s">
+      <c r="Q155" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R155">
+      <c r="R155" s="39">
         <v>4.4000000000000004</v>
       </c>
-      <c r="S155">
+      <c r="S155" s="39">
         <v>16.8</v>
       </c>
-      <c r="T155">
+      <c r="T155" s="39">
         <v>57</v>
       </c>
-      <c r="U155" t="s">
+      <c r="U155" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V155" t="s">
+      <c r="V155" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AC155" s="28" t="s">
+      <c r="AC155" s="39" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+    <row r="156" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="39" t="s">
         <v>369</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="39">
         <v>845</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="39" t="s">
         <v>372</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="39">
         <v>2866</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="39">
         <v>2007</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="39">
         <v>62</v>
       </c>
-      <c r="H156">
+      <c r="H156" s="39">
         <v>0.15</v>
       </c>
-      <c r="I156">
+      <c r="I156" s="39">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J156">
+      <c r="J156" s="39">
         <v>54</v>
       </c>
-      <c r="K156" t="s">
+      <c r="K156" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L156" t="s">
+      <c r="L156" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M156">
+      <c r="M156" s="39">
         <v>-3.9</v>
       </c>
-      <c r="N156">
+      <c r="N156" s="39">
         <v>15.31</v>
       </c>
-      <c r="O156">
+      <c r="O156" s="39">
         <v>60</v>
       </c>
-      <c r="P156" t="s">
+      <c r="P156" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q156" t="s">
+      <c r="Q156" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R156">
+      <c r="R156" s="39">
         <v>-1.6</v>
       </c>
-      <c r="S156">
+      <c r="S156" s="39">
         <v>18</v>
       </c>
-      <c r="T156">
+      <c r="T156" s="39">
         <v>58</v>
       </c>
-      <c r="U156" t="s">
+      <c r="U156" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V156" t="s">
+      <c r="V156" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AC156" s="28" t="s">
+      <c r="AC156" s="39" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+    <row r="157" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="39" t="s">
         <v>373</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="39">
         <v>845</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="39" t="s">
         <v>372</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="39">
         <v>2865</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="39">
         <v>2007</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G157">
+      <c r="G157" s="39">
         <v>60</v>
       </c>
-      <c r="H157">
+      <c r="H157" s="39">
         <v>0.47</v>
       </c>
-      <c r="I157">
+      <c r="I157" s="39">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J157">
+      <c r="J157" s="39">
         <v>46</v>
       </c>
-      <c r="K157" t="s">
+      <c r="K157" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L157" t="s">
+      <c r="L157" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M157">
+      <c r="M157" s="39">
         <v>-1.91</v>
       </c>
-      <c r="N157">
+      <c r="N157" s="39">
         <v>27.69</v>
       </c>
-      <c r="O157">
+      <c r="O157" s="39">
         <v>58</v>
       </c>
-      <c r="P157" t="s">
+      <c r="P157" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q157" t="s">
+      <c r="Q157" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R157">
+      <c r="R157" s="39">
         <v>4.5999999999999996</v>
       </c>
-      <c r="S157">
+      <c r="S157" s="39">
         <v>18.5</v>
       </c>
-      <c r="T157">
+      <c r="T157" s="39">
         <v>57</v>
       </c>
-      <c r="U157" t="s">
+      <c r="U157" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V157" t="s">
+      <c r="V157" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AC157" s="28" t="s">
+      <c r="AC157" s="39" t="s">
         <v>918</v>
       </c>
     </row>
@@ -21019,161 +21058,161 @@
         <v>962</v>
       </c>
     </row>
-    <row r="188" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="9" t="s">
+    <row r="188" spans="1:29" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="B188" s="9">
+      <c r="B188" s="44">
         <v>127</v>
       </c>
-      <c r="C188" s="9" t="s">
+      <c r="C188" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="D188" s="9">
+      <c r="D188" s="44">
         <v>249</v>
       </c>
-      <c r="E188" s="9">
+      <c r="E188" s="44">
         <v>1999</v>
       </c>
-      <c r="F188" s="9" t="s">
+      <c r="F188" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G188" s="9">
+      <c r="G188" s="44">
         <v>92</v>
       </c>
-      <c r="H188" s="9">
+      <c r="H188" s="44">
         <v>0</v>
       </c>
-      <c r="I188" s="9">
+      <c r="I188" s="44">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J188" s="9">
+      <c r="J188" s="44">
         <v>89</v>
       </c>
-      <c r="K188" s="9" t="s">
+      <c r="K188" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="L188" s="9" t="s">
+      <c r="L188" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="M188" s="9" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N188" s="9" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O188" s="9" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P188" s="9" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q188" s="9" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R188" s="9">
+      <c r="M188" s="44" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N188" s="44" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O188" s="44" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P188" s="44" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q188" s="44" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R188" s="44">
         <v>413.3</v>
       </c>
-      <c r="S188" s="9">
+      <c r="S188" s="44">
         <v>40.700000000000003</v>
       </c>
-      <c r="T188" s="9">
+      <c r="T188" s="44">
         <v>84</v>
       </c>
-      <c r="U188" s="9" t="s">
+      <c r="U188" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="V188" s="9" t="s">
+      <c r="V188" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="X188" s="22" t="s">
+      <c r="X188" s="45" t="s">
         <v>437</v>
       </c>
-      <c r="AA188" s="9" t="s">
+      <c r="AA188" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="AC188" s="32" t="s">
+      <c r="AC188" s="44" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="189" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="9" t="s">
+    <row r="189" spans="1:29" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="B189" s="9">
+      <c r="B189" s="44">
         <v>127</v>
       </c>
-      <c r="C189" s="9" t="s">
+      <c r="C189" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="D189" s="9">
+      <c r="D189" s="44">
         <v>250</v>
       </c>
-      <c r="E189" s="9">
+      <c r="E189" s="44">
         <v>1999</v>
       </c>
-      <c r="F189" s="9" t="s">
+      <c r="F189" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="G189" s="9">
+      <c r="G189" s="44">
         <v>104</v>
       </c>
-      <c r="H189" s="9">
+      <c r="H189" s="44">
         <v>0</v>
       </c>
-      <c r="I189" s="9">
+      <c r="I189" s="44">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J189" s="9">
+      <c r="J189" s="44">
         <v>104</v>
       </c>
-      <c r="K189" s="9" t="s">
+      <c r="K189" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="L189" s="9" t="s">
+      <c r="L189" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="M189" s="9" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N189" s="9" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O189" s="9" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P189" s="9" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q189" s="9" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R189" s="9">
+      <c r="M189" s="44" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N189" s="44" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O189" s="44" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P189" s="44" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q189" s="44" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R189" s="44">
         <v>417.2</v>
       </c>
-      <c r="S189" s="9">
+      <c r="S189" s="44">
         <v>23.6</v>
       </c>
-      <c r="T189" s="9">
+      <c r="T189" s="44">
         <v>102</v>
       </c>
-      <c r="U189" s="9" t="s">
+      <c r="U189" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="V189" s="9" t="s">
+      <c r="V189" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="AC189" s="32" t="s">
+      <c r="AC189" s="44" t="s">
         <v>929</v>
       </c>
     </row>
@@ -23274,151 +23313,151 @@
         <v>949</v>
       </c>
     </row>
-    <row r="216" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="9" t="s">
+    <row r="216" spans="1:29" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="44" t="s">
         <v>496</v>
       </c>
-      <c r="B216" s="9">
+      <c r="B216" s="44">
         <v>560</v>
       </c>
-      <c r="C216" s="9" t="s">
+      <c r="C216" s="44" t="s">
         <v>497</v>
       </c>
-      <c r="D216" s="9">
+      <c r="D216" s="44">
         <v>2271</v>
       </c>
-      <c r="E216" s="9">
+      <c r="E216" s="44">
         <v>1996</v>
       </c>
-      <c r="F216" s="9" t="s">
+      <c r="F216" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G216" s="9">
+      <c r="G216" s="44">
         <v>55</v>
       </c>
-      <c r="H216" s="9">
+      <c r="H216" s="44">
         <v>0.5</v>
       </c>
-      <c r="I216" s="9">
+      <c r="I216" s="44">
         <v>5</v>
       </c>
-      <c r="J216" s="9">
+      <c r="J216" s="44">
         <v>55</v>
       </c>
-      <c r="K216" s="9" t="s">
+      <c r="K216" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="L216" s="9" t="s">
+      <c r="L216" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="M216" s="9">
+      <c r="M216" s="44">
         <v>-8.1999999999999993</v>
       </c>
-      <c r="N216" s="9">
+      <c r="N216" s="44">
         <v>5.97</v>
       </c>
-      <c r="O216" s="9">
+      <c r="O216" s="44">
         <v>46</v>
       </c>
-      <c r="P216" s="9" t="s">
+      <c r="P216" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="Q216" s="9" t="s">
+      <c r="Q216" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="R216" s="9">
+      <c r="R216" s="44">
         <v>-0.1</v>
       </c>
-      <c r="S216" s="9">
+      <c r="S216" s="44">
         <v>24.757979667836</v>
       </c>
-      <c r="T216" s="9">
+      <c r="T216" s="44">
         <v>55</v>
       </c>
-      <c r="U216" s="9" t="s">
+      <c r="U216" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="V216" s="9" t="s">
+      <c r="V216" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="X216" s="21" t="s">
+      <c r="X216" s="46" t="s">
         <v>498</v>
       </c>
-      <c r="AA216" s="9" t="s">
+      <c r="AA216" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="AC216" s="32" t="s">
+      <c r="AC216" s="44" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="217" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="9" t="s">
+    <row r="217" spans="1:29" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="44" t="s">
         <v>499</v>
       </c>
-      <c r="B217" s="9">
+      <c r="B217" s="44">
         <v>560</v>
       </c>
-      <c r="C217" s="9" t="s">
+      <c r="C217" s="44" t="s">
         <v>497</v>
       </c>
-      <c r="D217" s="9">
+      <c r="D217" s="44">
         <v>2272</v>
       </c>
-      <c r="E217" s="9">
+      <c r="E217" s="44">
         <v>1996</v>
       </c>
-      <c r="F217" s="9" t="s">
+      <c r="F217" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="G217" s="9">
+      <c r="G217" s="44">
         <v>54</v>
       </c>
-      <c r="H217" s="9">
+      <c r="H217" s="44">
         <v>5.5</v>
       </c>
-      <c r="I217" s="9">
+      <c r="I217" s="44">
         <v>5</v>
       </c>
-      <c r="J217" s="9">
+      <c r="J217" s="44">
         <v>54</v>
       </c>
-      <c r="K217" s="9" t="s">
+      <c r="K217" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="L217" s="9" t="s">
+      <c r="L217" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="M217" s="9">
+      <c r="M217" s="44">
         <v>-7.2</v>
       </c>
-      <c r="N217" s="9">
+      <c r="N217" s="44">
         <v>5.97</v>
       </c>
-      <c r="O217" s="9">
+      <c r="O217" s="44">
         <v>47</v>
       </c>
-      <c r="P217" s="9" t="s">
+      <c r="P217" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="Q217" s="9" t="s">
+      <c r="Q217" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="R217" s="9">
+      <c r="R217" s="44">
         <v>7.2</v>
       </c>
-      <c r="S217" s="9">
+      <c r="S217" s="44">
         <v>24.757979667836</v>
       </c>
-      <c r="T217" s="9">
+      <c r="T217" s="44">
         <v>54</v>
       </c>
-      <c r="U217" s="9" t="s">
+      <c r="U217" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="V217" s="9" t="s">
+      <c r="V217" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AC217" s="32" t="s">
+      <c r="AC217" s="44" t="s">
         <v>922</v>
       </c>
     </row>
@@ -24276,296 +24315,296 @@
         <v>983</v>
       </c>
     </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
+    <row r="228" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="39" t="s">
         <v>517</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="39">
         <v>942</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="39" t="s">
         <v>518</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="39">
         <v>3113</v>
       </c>
-      <c r="E228">
+      <c r="E228" s="39">
         <v>1995</v>
       </c>
-      <c r="F228" t="s">
+      <c r="F228" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G228">
+      <c r="G228" s="39">
         <v>116</v>
       </c>
-      <c r="H228">
+      <c r="H228" s="39">
         <v>0</v>
       </c>
-      <c r="I228">
+      <c r="I228" s="39">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J228">
+      <c r="J228" s="39">
         <v>116</v>
       </c>
-      <c r="K228" t="s">
+      <c r="K228" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L228" t="s">
+      <c r="L228" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M228">
+      <c r="M228" s="39">
         <v>10.62</v>
       </c>
-      <c r="N228">
+      <c r="N228" s="39">
         <v>7.34</v>
       </c>
-      <c r="O228">
+      <c r="O228" s="39">
         <v>16</v>
       </c>
-      <c r="P228" t="s">
+      <c r="P228" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="Q228" t="s">
+      <c r="Q228" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R228">
+      <c r="R228" s="39">
         <v>-0.85</v>
       </c>
-      <c r="S228">
+      <c r="S228" s="39">
         <v>24.18</v>
       </c>
-      <c r="T228">
+      <c r="T228" s="39">
         <v>78</v>
       </c>
-      <c r="U228" t="s">
+      <c r="U228" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V228" t="s">
+      <c r="V228" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AC228" s="28" t="s">
+      <c r="AC228" s="39" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+    <row r="229" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="39" t="s">
         <v>519</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="39">
         <v>942</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="39" t="s">
         <v>518</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="39">
         <v>3112</v>
       </c>
-      <c r="E229">
+      <c r="E229" s="39">
         <v>1995</v>
       </c>
-      <c r="F229" t="s">
+      <c r="F229" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="G229">
+      <c r="G229" s="39">
         <v>115</v>
       </c>
-      <c r="H229">
+      <c r="H229" s="39">
         <v>0.41</v>
       </c>
-      <c r="I229">
+      <c r="I229" s="39">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J229">
+      <c r="J229" s="39">
         <v>115</v>
       </c>
-      <c r="K229" t="s">
+      <c r="K229" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L229" t="s">
+      <c r="L229" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M229">
+      <c r="M229" s="39">
         <v>25.85</v>
       </c>
-      <c r="N229">
+      <c r="N229" s="39">
         <v>18.739999999999998</v>
       </c>
-      <c r="O229">
+      <c r="O229" s="39">
         <v>16</v>
       </c>
-      <c r="P229" t="s">
+      <c r="P229" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="Q229" t="s">
+      <c r="Q229" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R229">
+      <c r="R229" s="39">
         <v>-5.23</v>
       </c>
-      <c r="S229">
+      <c r="S229" s="39">
         <v>29.51</v>
       </c>
-      <c r="T229">
+      <c r="T229" s="39">
         <v>90</v>
       </c>
-      <c r="U229" t="s">
+      <c r="U229" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V229" t="s">
+      <c r="V229" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X229" s="14" t="s">
+      <c r="X229" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="Y229" t="s">
+      <c r="Y229" s="39" t="s">
         <v>521</v>
       </c>
-      <c r="Z229" s="2" t="s">
+      <c r="Z229" s="41" t="s">
         <v>522</v>
       </c>
-      <c r="AC229" s="28" t="s">
+      <c r="AC229" s="39" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
+    <row r="230" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="39" t="s">
         <v>517</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="39">
         <v>942</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="39" t="s">
         <v>523</v>
       </c>
-      <c r="D230">
+      <c r="D230" s="39">
         <v>3113</v>
       </c>
-      <c r="E230">
+      <c r="E230" s="39">
         <v>1995</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F230" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G230">
+      <c r="G230" s="39">
         <v>116</v>
       </c>
-      <c r="H230">
+      <c r="H230" s="39">
         <v>0</v>
       </c>
-      <c r="I230">
+      <c r="I230" s="39">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J230">
+      <c r="J230" s="39">
         <v>116</v>
       </c>
-      <c r="K230" t="s">
+      <c r="K230" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L230" t="s">
+      <c r="L230" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M230">
+      <c r="M230" s="39">
         <v>10.62</v>
       </c>
-      <c r="N230">
+      <c r="N230" s="39">
         <v>7.34</v>
       </c>
-      <c r="O230">
+      <c r="O230" s="39">
         <v>16</v>
       </c>
-      <c r="P230" t="s">
+      <c r="P230" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="Q230" t="s">
+      <c r="Q230" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R230">
+      <c r="R230" s="39">
         <v>-0.85</v>
       </c>
-      <c r="S230">
+      <c r="S230" s="39">
         <v>24.18</v>
       </c>
-      <c r="T230">
+      <c r="T230" s="39">
         <v>78</v>
       </c>
-      <c r="U230" t="s">
+      <c r="U230" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V230" t="s">
+      <c r="V230" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AC230" s="28" t="s">
+      <c r="AC230" s="39" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
+    <row r="231" spans="1:29" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="39" t="s">
         <v>524</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="39">
         <v>942</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="39" t="s">
         <v>523</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="39">
         <v>3114</v>
       </c>
-      <c r="E231">
+      <c r="E231" s="39">
         <v>1995</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F231" s="39" t="s">
         <v>471</v>
       </c>
-      <c r="G231">
+      <c r="G231" s="39">
         <v>117</v>
       </c>
-      <c r="H231">
+      <c r="H231" s="39">
         <v>3.4</v>
       </c>
-      <c r="I231">
+      <c r="I231" s="39">
         <v>3.6196938900862801</v>
       </c>
-      <c r="J231">
+      <c r="J231" s="39">
         <v>117</v>
       </c>
-      <c r="K231" t="s">
+      <c r="K231" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L231" t="s">
+      <c r="L231" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M231">
+      <c r="M231" s="39">
         <v>20.010000000000002</v>
       </c>
-      <c r="N231">
+      <c r="N231" s="39">
         <v>20.350000000000001</v>
       </c>
-      <c r="O231">
+      <c r="O231" s="39">
         <v>15</v>
       </c>
-      <c r="P231" t="s">
+      <c r="P231" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="Q231" t="s">
+      <c r="Q231" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="R231">
+      <c r="R231" s="39">
         <v>24.84</v>
       </c>
-      <c r="S231">
+      <c r="S231" s="39">
         <v>28.53</v>
       </c>
-      <c r="T231">
+      <c r="T231" s="39">
         <v>93</v>
       </c>
-      <c r="U231" t="s">
+      <c r="U231" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="V231" t="s">
+      <c r="V231" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AC231" s="28" t="s">
+      <c r="AC231" s="39" t="s">
         <v>955</v>
       </c>
     </row>
